--- a/backend/data/transactions.xlsx
+++ b/backend/data/transactions.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -682,9 +682,49 @@
         <v>75</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>b24d361c-eb46-42a9-9c4a-10ab55ca990d</v>
+      </c>
+      <c r="B15" t="str">
+        <v>plywood</v>
+      </c>
+      <c r="C15" t="str">
+        <v>p002</v>
+      </c>
+      <c r="D15" t="str">
+        <v>2026-01-19T21:12:07.822Z</v>
+      </c>
+      <c r="E15">
+        <v>-30</v>
+      </c>
+      <c r="F15">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>3c895075-7194-4a91-b14b-2d30f67e4662</v>
+      </c>
+      <c r="B16" t="str">
+        <v>hardware</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Hardware 1mm</v>
+      </c>
+      <c r="D16" t="str">
+        <v>2026-01-19T21:19:04.819Z</v>
+      </c>
+      <c r="E16">
+        <v>-100</v>
+      </c>
+      <c r="F16">
+        <v>180</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F14"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F16"/>
   </ignoredErrors>
 </worksheet>
 </file>